--- a/LMS_TWHKMA_2019.xlsx
+++ b/LMS_TWHKMA_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC8E688-87C1-4031-8536-AE009C57B04E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A2D1B-6353-4B6E-8080-13A241DA61DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="3204" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Games" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="163">
   <si>
     <t>Lanes</t>
   </si>
@@ -1560,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3095,6 +3095,105 @@
       </c>
       <c r="C139" s="83">
         <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C143" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C145" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148" s="81">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/LMS_TWHKMA_2019.xlsx
+++ b/LMS_TWHKMA_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178A2D1B-6353-4B6E-8080-13A241DA61DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F8620-9837-417F-BC33-F376D0493FED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="163">
   <si>
     <t>Lanes</t>
   </si>
@@ -1560,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C7BB09-4029-452F-B902-3394B5983D34}">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,13 +3098,13 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="85" t="s">
+      <c r="A140" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="B140" s="84" t="s">
+      <c r="B140" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="C140" s="81">
+      <c r="C140" s="82">
         <v>-1</v>
       </c>
     </row>
@@ -3193,6 +3193,39 @@
         <v>161</v>
       </c>
       <c r="C148" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C149" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="83">
         <v>-1</v>
       </c>
     </row>
